--- a/Script/Cardless Withdrawal/Default.xlsx
+++ b/Script/Cardless Withdrawal/Default.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Global" sheetId="1" r:id="rId1"/>
     <sheet name="Tarik Tunai ATM BSI - Positive" sheetId="2" r:id="rId2"/>
     <sheet name="Tarik Tunai Indomaret - Positif" sheetId="3" r:id="rId3"/>
-    <sheet name="Tarik Tunai AT BSI - Negative" sheetId="4" r:id="rId4"/>
+    <sheet name="Tarik Tunai ATM BSI - Negative" sheetId="4" r:id="rId4"/>
     <sheet name="Tarik Tunai Indomaret - Negatif" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="40001"/>
@@ -186,10 +186,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="FFFFFF"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="283845"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
